--- a/inletConditions.xlsx
+++ b/inletConditions.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/rezakholghy_cunet_carleton_ca/Documents/1-students/2021_Mo Adib/PhD/EPTL/03 - Cantera/01 - Gleason2018/inletConditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/rezakholghy_cunet_carleton_ca/Documents/1-students/2021_Mo Adib/PhD/EPTL/03 - Cantera/09 - Gleason2021HighP/inletConditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC1048A3C15955E85BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{388A9005-644D-4B39-BE22-E0EDCF668010}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048A3C15955E85BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF4E8792-19B5-4135-A604-D56164357922}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0.101MPa" sheetId="1" r:id="rId1"/>
+    <sheet name="0.405MPa" sheetId="3" r:id="rId2"/>
+    <sheet name="0.811MPa" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,57 +27,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Flame1928</t>
+  </si>
+  <si>
+    <t>Flame1984</t>
+  </si>
+  <si>
+    <t>Flame2037</t>
+  </si>
+  <si>
+    <t>Flame2088</t>
+  </si>
+  <si>
+    <t>Flame2137</t>
+  </si>
+  <si>
+    <t>Flame2183</t>
+  </si>
+  <si>
+    <t>C2H4_f</t>
+  </si>
+  <si>
+    <t>N2_f</t>
+  </si>
+  <si>
+    <t>v_ax_f</t>
+  </si>
+  <si>
+    <t>T_in_f</t>
+  </si>
+  <si>
+    <t>O2_o</t>
+  </si>
+  <si>
+    <t>N2_o</t>
+  </si>
+  <si>
+    <t>v_ax_o</t>
+  </si>
+  <si>
+    <t>T_in_o</t>
+  </si>
+  <si>
     <t>Tmax</t>
   </si>
   <si>
-    <t>Flame1890</t>
-  </si>
-  <si>
-    <t>Flame1928</t>
-  </si>
-  <si>
-    <t>Flame1984</t>
-  </si>
-  <si>
-    <t>Flame2037</t>
-  </si>
-  <si>
-    <t>Flame2088</t>
-  </si>
-  <si>
-    <t>Flame2137</t>
-  </si>
-  <si>
-    <t>Flame2183</t>
-  </si>
-  <si>
-    <t>N2_o</t>
-  </si>
-  <si>
-    <t>N2_f</t>
-  </si>
-  <si>
-    <t>v_ax_f</t>
-  </si>
-  <si>
-    <t>T_in_f</t>
-  </si>
-  <si>
-    <t>T_in_o</t>
-  </si>
-  <si>
-    <t>O2_o</t>
-  </si>
-  <si>
-    <t>C2H4_f</t>
-  </si>
-  <si>
-    <t>v_ax_o</t>
+    <t>Flame1922</t>
+  </si>
+  <si>
+    <t>Flame1665</t>
+  </si>
+  <si>
+    <t>Flame1721</t>
+  </si>
+  <si>
+    <t>Flame1775</t>
+  </si>
+  <si>
+    <t>Flame1826</t>
+  </si>
+  <si>
+    <t>Flame1875</t>
+  </si>
+  <si>
+    <t>Flame1923</t>
+  </si>
+  <si>
+    <t>Flame1970</t>
+  </si>
+  <si>
+    <t>Flame2016</t>
+  </si>
+  <si>
+    <t>Flame1556</t>
+  </si>
+  <si>
+    <t>Flame1635</t>
+  </si>
+  <si>
+    <t>Flame1696</t>
+  </si>
+  <si>
+    <t>Flame1754</t>
+  </si>
+  <si>
+    <t>Flame1809</t>
+  </si>
+  <si>
+    <t>Flame1862</t>
+  </si>
+  <si>
+    <t>Flame1914</t>
   </si>
 </sst>
 </file>
@@ -396,12 +443,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -409,108 +456,108 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.30530000000000002</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C2">
-        <v>0.31530000000000002</v>
+        <v>0.315</v>
       </c>
       <c r="D2">
-        <v>0.33029999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
-        <v>0.3453</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F2">
-        <v>0.36030000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="G2">
-        <v>0.37530000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="H2">
-        <v>0.39029999999999998</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.69469999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="C3">
-        <v>0.68469999999999998</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="D3">
-        <v>0.66969999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="E3">
-        <v>0.65469999999999995</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="F3">
-        <v>0.64970000000000006</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
-        <v>0.62470000000000003</v>
+        <v>0.625</v>
       </c>
       <c r="H3">
-        <v>0.60970000000000002</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>31.2</v>
+        <v>20.2</v>
       </c>
       <c r="C4">
-        <v>31.1</v>
+        <v>20.2</v>
       </c>
       <c r="D4">
-        <v>30.9</v>
+        <v>20.2</v>
       </c>
       <c r="E4">
-        <v>30.8</v>
+        <v>20.2</v>
       </c>
       <c r="F4">
-        <v>30.7</v>
+        <v>20.2</v>
       </c>
       <c r="G4">
-        <v>30.5</v>
+        <v>20.2</v>
       </c>
       <c r="H4">
-        <v>30.4</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>298</v>
@@ -536,85 +583,85 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2339</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="C6">
-        <v>0.24160000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="D6">
-        <v>0.25309999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E6">
-        <v>0.2646</v>
+        <v>0.24</v>
       </c>
       <c r="F6">
-        <v>0.27610000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>0.28760000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="H6">
-        <v>0.29909999999999998</v>
+        <v>0.27200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7661</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C7">
-        <v>0.75839999999999996</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="D7">
-        <v>0.74690000000000001</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E7">
-        <v>0.73540000000000005</v>
+        <v>0.76</v>
       </c>
       <c r="F7">
-        <v>0.72389999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G7">
-        <v>0.71240000000000003</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="H7">
-        <v>0.70089999999999997</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>33.1</v>
+        <v>19.8</v>
       </c>
       <c r="C8">
-        <v>33.200000000000003</v>
+        <v>19.8</v>
       </c>
       <c r="D8">
-        <v>33.299999999999997</v>
+        <v>19.8</v>
       </c>
       <c r="E8">
-        <v>33.4</v>
+        <v>19.8</v>
       </c>
       <c r="F8">
-        <v>33.5</v>
+        <v>19.8</v>
       </c>
       <c r="G8">
-        <v>33.6</v>
+        <v>19.8</v>
       </c>
       <c r="H8">
-        <v>33.700000000000003</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>323</v>
@@ -640,28 +687,611 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>1890</v>
+        <v>1922</v>
       </c>
       <c r="C10">
-        <v>1928</v>
+        <v>1960</v>
       </c>
       <c r="D10">
-        <v>1984</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>2037</v>
+        <v>2063</v>
       </c>
       <c r="F10">
-        <v>2088</v>
+        <v>2113</v>
       </c>
       <c r="G10">
-        <v>2137</v>
+        <v>2160</v>
       </c>
       <c r="H10">
-        <v>2183</v>
+        <v>2207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4E7B4B-52A0-4DD2-BC82-A42B79DC8826}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.245</v>
+      </c>
+      <c r="E2">
+        <v>0.255</v>
+      </c>
+      <c r="F2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I2">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.755</v>
+      </c>
+      <c r="E3">
+        <v>0.745</v>
+      </c>
+      <c r="F3">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I4">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>298</v>
+      </c>
+      <c r="C5">
+        <v>298</v>
+      </c>
+      <c r="D5">
+        <v>298</v>
+      </c>
+      <c r="E5">
+        <v>298</v>
+      </c>
+      <c r="F5">
+        <v>298</v>
+      </c>
+      <c r="G5">
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <v>298</v>
+      </c>
+      <c r="I5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.155</v>
+      </c>
+      <c r="C6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.183</v>
+      </c>
+      <c r="G6">
+        <v>0.19</v>
+      </c>
+      <c r="H6">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.81</v>
+      </c>
+      <c r="H7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I7">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I8">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>323</v>
+      </c>
+      <c r="C9">
+        <v>323</v>
+      </c>
+      <c r="D9">
+        <v>323</v>
+      </c>
+      <c r="E9">
+        <v>323</v>
+      </c>
+      <c r="F9">
+        <v>323</v>
+      </c>
+      <c r="G9">
+        <v>323</v>
+      </c>
+      <c r="H9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1665</v>
+      </c>
+      <c r="C10">
+        <v>1721</v>
+      </c>
+      <c r="D10">
+        <v>1775</v>
+      </c>
+      <c r="E10">
+        <v>1826</v>
+      </c>
+      <c r="F10">
+        <v>1875</v>
+      </c>
+      <c r="G10">
+        <v>1923</v>
+      </c>
+      <c r="H10">
+        <v>1970</v>
+      </c>
+      <c r="I10">
+        <v>2016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B167CBD-3BE1-4475-BBCF-2242F78797C0}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.215</v>
+      </c>
+      <c r="D2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.245</v>
+      </c>
+      <c r="G2">
+        <v>0.255</v>
+      </c>
+      <c r="H2">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.755</v>
+      </c>
+      <c r="G3">
+        <v>0.745</v>
+      </c>
+      <c r="H3">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>298</v>
+      </c>
+      <c r="C5">
+        <v>298</v>
+      </c>
+      <c r="D5">
+        <v>298</v>
+      </c>
+      <c r="E5">
+        <v>298</v>
+      </c>
+      <c r="F5">
+        <v>298</v>
+      </c>
+      <c r="G5">
+        <v>298</v>
+      </c>
+      <c r="H5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.155</v>
+      </c>
+      <c r="E6">
+        <v>0.161</v>
+      </c>
+      <c r="F6">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.86</v>
+      </c>
+      <c r="C7">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E7">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H8">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>323</v>
+      </c>
+      <c r="C9">
+        <v>323</v>
+      </c>
+      <c r="D9">
+        <v>323</v>
+      </c>
+      <c r="E9">
+        <v>323</v>
+      </c>
+      <c r="F9">
+        <v>323</v>
+      </c>
+      <c r="G9">
+        <v>323</v>
+      </c>
+      <c r="H9">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1556</v>
+      </c>
+      <c r="C10">
+        <v>1635</v>
+      </c>
+      <c r="D10">
+        <v>1696</v>
+      </c>
+      <c r="E10">
+        <v>1754</v>
+      </c>
+      <c r="F10">
+        <v>1809</v>
+      </c>
+      <c r="G10">
+        <v>1862</v>
+      </c>
+      <c r="H10">
+        <v>1914</v>
       </c>
     </row>
   </sheetData>

--- a/inletConditions.xlsx
+++ b/inletConditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/rezakholghy_cunet_carleton_ca/Documents/1-students/2021_Mo Adib/PhD/EPTL/03 - Cantera/09 - Gleason2021HighP/inletConditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC1048A3C15955E85BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF4E8792-19B5-4135-A604-D56164357922}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC1048A3C15955E85BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C89BF784-4EDD-4CD8-937A-0420DA56788F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.101MPa" sheetId="1" r:id="rId1"/>
@@ -32,24 +32,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Flame1928</t>
-  </si>
-  <si>
-    <t>Flame1984</t>
-  </si>
-  <si>
-    <t>Flame2037</t>
-  </si>
-  <si>
-    <t>Flame2088</t>
-  </si>
-  <si>
-    <t>Flame2137</t>
-  </si>
-  <si>
-    <t>Flame2183</t>
-  </si>
-  <si>
     <t>C2H4_f</t>
   </si>
   <si>
@@ -123,6 +105,24 @@
   </si>
   <si>
     <t>Flame1914</t>
+  </si>
+  <si>
+    <t>Flame2063</t>
+  </si>
+  <si>
+    <t>Flame1960</t>
+  </si>
+  <si>
+    <t>Flame2013</t>
+  </si>
+  <si>
+    <t>Flame2113</t>
+  </si>
+  <si>
+    <t>Flame2160</t>
+  </si>
+  <si>
+    <t>Flame2207</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,30 +456,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.30499999999999999</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.69499999999999995</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>20.2</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>298</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.21099999999999999</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.78900000000000003</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>19.8</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>323</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1922</v>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4E7B4B-52A0-4DD2-BC82-A42B79DC8826}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,33 +734,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.22500000000000001</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.77500000000000002</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>20.100000000000001</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>298</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.155</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.84499999999999997</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>19.899999999999999</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>323</v>
@@ -984,12 +984,15 @@
         <v>323</v>
       </c>
       <c r="H9">
+        <v>323</v>
+      </c>
+      <c r="I9">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1665</v>
@@ -1039,30 +1042,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.20499999999999999</v>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.79500000000000004</v>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>20.100000000000001</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>298</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.14000000000000001</v>
@@ -1192,7 +1195,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0.86</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>19.899999999999999</v>
@@ -1244,7 +1247,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>323</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1556</v>
